--- a/SchedulingData/dynamic10/pso/scheduling2_9.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,211 +462,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>230.62</v>
+        <v>252.36</v>
       </c>
       <c r="D2" t="n">
-        <v>295.42</v>
+        <v>308.72</v>
       </c>
       <c r="E2" t="n">
-        <v>12.608</v>
+        <v>10.868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>218.36</v>
+        <v>274.76</v>
       </c>
       <c r="D3" t="n">
-        <v>275.78</v>
+        <v>333.88</v>
       </c>
       <c r="E3" t="n">
-        <v>13.552</v>
+        <v>12.692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>205.5</v>
+        <v>242.58</v>
       </c>
       <c r="D4" t="n">
-        <v>264</v>
+        <v>309.98</v>
       </c>
       <c r="E4" t="n">
-        <v>15.12</v>
+        <v>12.632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>213.94</v>
+        <v>308.72</v>
       </c>
       <c r="D5" t="n">
-        <v>266.64</v>
+        <v>372.9</v>
       </c>
       <c r="E5" t="n">
-        <v>15.336</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>295.42</v>
+        <v>240.78</v>
       </c>
       <c r="D6" t="n">
-        <v>338.02</v>
+        <v>288.28</v>
       </c>
       <c r="E6" t="n">
-        <v>10.488</v>
+        <v>10.832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>264</v>
+        <v>333.88</v>
       </c>
       <c r="D7" t="n">
-        <v>311.12</v>
+        <v>381.38</v>
       </c>
       <c r="E7" t="n">
-        <v>12.528</v>
+        <v>10.572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>311.12</v>
+        <v>288.28</v>
       </c>
       <c r="D8" t="n">
-        <v>351.08</v>
+        <v>325.98</v>
       </c>
       <c r="E8" t="n">
-        <v>10.152</v>
+        <v>8.192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>266.64</v>
+        <v>206.56</v>
       </c>
       <c r="D9" t="n">
-        <v>314.76</v>
+        <v>260.62</v>
       </c>
       <c r="E9" t="n">
-        <v>12.144</v>
+        <v>14.088</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>225.4</v>
+        <v>262.98</v>
       </c>
       <c r="D10" t="n">
-        <v>279.26</v>
+        <v>322.26</v>
       </c>
       <c r="E10" t="n">
-        <v>12.684</v>
+        <v>11.524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>190.84</v>
+        <v>322.26</v>
       </c>
       <c r="D11" t="n">
-        <v>244.3</v>
+        <v>380.3</v>
       </c>
       <c r="E11" t="n">
-        <v>15.56</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>314.76</v>
+        <v>380.3</v>
       </c>
       <c r="D12" t="n">
-        <v>353.62</v>
+        <v>439.7</v>
       </c>
       <c r="E12" t="n">
-        <v>9.388</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>279.26</v>
+        <v>260.62</v>
       </c>
       <c r="D13" t="n">
-        <v>340.04</v>
+        <v>321.56</v>
       </c>
       <c r="E13" t="n">
-        <v>10.236</v>
+        <v>10.604</v>
       </c>
     </row>
     <row r="14">
@@ -694,60 +694,60 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>353.62</v>
+        <v>325.98</v>
       </c>
       <c r="D14" t="n">
-        <v>396.22</v>
+        <v>386.04</v>
       </c>
       <c r="E14" t="n">
-        <v>6.748</v>
+        <v>5.816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>396.22</v>
+        <v>381.38</v>
       </c>
       <c r="D15" t="n">
-        <v>469.88</v>
+        <v>429.1</v>
       </c>
       <c r="E15" t="n">
-        <v>3.472</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>351.08</v>
+        <v>309.98</v>
       </c>
       <c r="D16" t="n">
-        <v>395.46</v>
+        <v>354.28</v>
       </c>
       <c r="E16" t="n">
-        <v>7.344</v>
+        <v>9.332000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,70 +755,70 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>340.04</v>
+        <v>372.9</v>
       </c>
       <c r="D17" t="n">
-        <v>386.1</v>
+        <v>423.86</v>
       </c>
       <c r="E17" t="n">
-        <v>7.74</v>
+        <v>5.564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>275.78</v>
+        <v>321.56</v>
       </c>
       <c r="D18" t="n">
-        <v>328.38</v>
+        <v>363.66</v>
       </c>
       <c r="E18" t="n">
-        <v>11.392</v>
+        <v>8.523999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>328.38</v>
+        <v>429.1</v>
       </c>
       <c r="D19" t="n">
-        <v>366.82</v>
+        <v>473.52</v>
       </c>
       <c r="E19" t="n">
-        <v>8.688000000000001</v>
+        <v>5.588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>366.82</v>
+        <v>363.66</v>
       </c>
       <c r="D20" t="n">
-        <v>419.38</v>
+        <v>400.88</v>
       </c>
       <c r="E20" t="n">
-        <v>5.552</v>
+        <v>5.932</v>
       </c>
     </row>
     <row r="21">
@@ -827,188 +827,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>244.3</v>
+        <v>354.28</v>
       </c>
       <c r="D21" t="n">
-        <v>308.06</v>
+        <v>412.68</v>
       </c>
       <c r="E21" t="n">
-        <v>12.284</v>
+        <v>6.092</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>386.1</v>
+        <v>423.86</v>
       </c>
       <c r="D22" t="n">
-        <v>442.7</v>
+        <v>469.44</v>
       </c>
       <c r="E22" t="n">
-        <v>5.66</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>338.02</v>
+        <v>386.04</v>
       </c>
       <c r="D23" t="n">
-        <v>436.82</v>
+        <v>449.9</v>
       </c>
       <c r="E23" t="n">
-        <v>7.188</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>436.82</v>
+        <v>412.68</v>
       </c>
       <c r="D24" t="n">
-        <v>496.12</v>
+        <v>469.12</v>
       </c>
       <c r="E24" t="n">
-        <v>3.888</v>
+        <v>3.068</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>442.7</v>
+        <v>439.7</v>
       </c>
       <c r="D25" t="n">
-        <v>489.24</v>
+        <v>500.2</v>
       </c>
       <c r="E25" t="n">
-        <v>2.636</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>pond57</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>308.06</v>
-      </c>
-      <c r="D26" t="n">
-        <v>346.66</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.564</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>pond34</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>419.38</v>
-      </c>
-      <c r="D27" t="n">
-        <v>463.8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond30</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>346.66</v>
-      </c>
-      <c r="D28" t="n">
-        <v>415.88</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.232</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>pond3</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>395.46</v>
-      </c>
-      <c r="D29" t="n">
-        <v>459.74</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.536</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>pond16</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>459.74</v>
-      </c>
-      <c r="D30" t="n">
-        <v>514.84</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.116</v>
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
